--- a/msl/examples/equipment/equipment-connections-database.xlsx
+++ b/msl/examples/equipment/equipment-connections-database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.borbely\code\git\msl-equipment\msl\examples\equipment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\git\msl-equipment\msl\examples\equipment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="15120" yWindow="0" windowWidth="18255" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
     <sheet name="Connections" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -271,27 +271,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Communicating to this equipment is done through a the SDK provided by the manufacturer.
-The following structure is used:
-SDK::PythonWrapperClassName::PathToLibraryFile</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="140">
   <si>
     <t>Description</t>
   </si>
@@ -799,9 +784,6 @@
     <t>COM2</t>
   </si>
   <si>
-    <t>baud_rate=119200</t>
-  </si>
-  <si>
     <t>USB::0x1234::125::A22-5::INSTR</t>
   </si>
   <si>
@@ -823,9 +805,6 @@
     <t>COM1</t>
   </si>
   <si>
-    <t>flow_control=XON_XOFF; parity=even; data_bits=8</t>
-  </si>
-  <si>
     <t>G00001</t>
   </si>
   <si>
@@ -850,9 +829,6 @@
     <t>MFF101/M</t>
   </si>
   <si>
-    <t>SDK::FilterFlipper::C:\Program Files\Thorlabs\Kinesis\Thorlabs.MotionControl.FilterFlipper.dll</t>
-  </si>
-  <si>
     <t>Light Lab</t>
   </si>
   <si>
@@ -860,14 +836,47 @@
   </si>
   <si>
     <t>SDK::Bentham::C:\Program Files (x86)\Bentham\SDK\libs\benhw32_cdecl.dll</t>
+  </si>
+  <si>
+    <t>xon_xoff=true; parity=even; data_bits=8; baud_rate=9600</t>
+  </si>
+  <si>
+    <t>baud_rate=19200</t>
+  </si>
+  <si>
+    <t>SDK::FilterFlipper::Thorlabs.MotionControl.FilterFlipper.dll</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calibration Cycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [Years]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-1409]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -956,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1018,6 +1027,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,28 +1348,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
+    <col min="8" max="8" width="16.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="171.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,19 +1390,22 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1405,18 +1424,21 @@
       <c r="F2" s="10">
         <v>40724</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="24">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1435,16 +1457,19 @@
       <c r="F3" s="10">
         <v>36696</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="24">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1463,16 +1488,19 @@
       <c r="F4" s="10">
         <v>39142</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="24">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1489,16 +1517,17 @@
         <v>5</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1517,16 +1546,19 @@
       <c r="F6" s="10">
         <v>39106</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1545,16 +1577,19 @@
       <c r="F7" s="10">
         <v>39489</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="24">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1573,16 +1608,19 @@
       <c r="F8" s="10">
         <v>42071</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="24">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1599,16 +1637,17 @@
         <v>5</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1627,16 +1666,19 @@
       <c r="F10" s="10">
         <v>37852</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="24">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1655,16 +1697,19 @@
       <c r="F11" s="10">
         <v>38443</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="24">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1683,16 +1728,19 @@
       <c r="F12" s="10">
         <v>40521</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="24">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1709,16 +1757,17 @@
         <v>5</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="24"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1735,16 +1784,17 @@
         <v>5</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="24"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1761,16 +1811,17 @@
         <v>5</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1787,16 +1838,17 @@
         <v>5</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="24"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -1813,16 +1865,17 @@
         <v>5</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="24"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1839,16 +1892,17 @@
         <v>5</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1865,16 +1919,17 @@
         <v>5</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1891,16 +1946,17 @@
         <v>5</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1917,16 +1973,17 @@
         <v>5</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1945,20 +2002,23 @@
       <c r="F22" s="6">
         <v>41117</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>7</v>
       </c>
@@ -1977,16 +2037,19 @@
       <c r="F23" s="10">
         <v>40452</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="G23" s="24">
+        <v>5</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
@@ -2003,18 +2066,19 @@
         <v>5</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
@@ -2031,18 +2095,19 @@
         <v>5</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="K25" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -2059,24 +2124,25 @@
         <v>5</v>
       </c>
       <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="23">
         <v>37871232</v>
@@ -2084,16 +2150,17 @@
       <c r="E27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>137</v>
+      <c r="G27" s="24"/>
+      <c r="I27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J25">
-    <sortCondition ref="H2:H25"/>
+  <sortState ref="A2:K25">
+    <sortCondition ref="I2:I25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2104,24 +2171,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="86.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="16"/>
-    <col min="9" max="9" width="43.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.86328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.9296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1328125" style="16"/>
+    <col min="9" max="9" width="43.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>102</v>
       </c>
@@ -2141,7 +2206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2214,7 @@
         <v>104</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>110</v>
@@ -2159,7 +2224,7 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>106</v>
       </c>
@@ -2167,7 +2232,7 @@
         <v>105</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>110</v>
@@ -2176,10 +2241,10 @@
         <v>117</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
@@ -2193,11 +2258,11 @@
         <v>110</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -2205,17 +2270,17 @@
         <v>107</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>111</v>
       </c>
@@ -2223,17 +2288,17 @@
         <v>112</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
@@ -2247,11 +2312,11 @@
         <v>109</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
@@ -2259,19 +2324,19 @@
         <v>113</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
         <v>114</v>
       </c>
@@ -2279,19 +2344,19 @@
         <v>115</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
@@ -2305,19 +2370,19 @@
         <v>110</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="23">
         <v>37871232</v>
@@ -2326,7 +2391,7 @@
         <v>109</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
